--- a/src/main/resources/xlsx/staff_list.xlsx
+++ b/src/main/resources/xlsx/staff_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LF work\LF running courses\CX2002\Assignment\2023S2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SC2002-AY23-24-FOMS\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8478E389-29E4-4F40-9303-1C7D1D01641A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116B5948-C4CD-48F9-9437-6050498551C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="-24825" yWindow="1035" windowWidth="22875" windowHeight="11385" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -543,473 +549,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="2" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
+      <c r="C3" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" s="10"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
     </row>
   </sheetData>

--- a/src/main/resources/xlsx/staff_list.xlsx
+++ b/src/main/resources/xlsx/staff_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SC2002-AY23-24-FOMS\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116B5948-C4CD-48F9-9437-6050498551C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9A68B-997C-4D59-855E-E9F17F031D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24825" yWindow="1035" windowWidth="22875" windowHeight="11385" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +197,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -234,6 +242,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -554,7 +563,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,16 +582,16 @@
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
     </row>

--- a/src/main/resources/xlsx/staff_list.xlsx
+++ b/src/main/resources/xlsx/staff_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SC2002-AY23-24-FOMS\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9A68B-997C-4D59-855E-E9F17F031D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61ADA59-4B41-4C0E-97D5-1C53A8D09097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="14445" yWindow="1260" windowWidth="13560" windowHeight="11385" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="E8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/xlsx/staff_list.xlsx
+++ b/src/main/resources/xlsx/staff_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SC2002-AY23-24-FOMS\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/Documents/Github/SC2002-AY23-24-FOMS/src/main/resources/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61ADA59-4B41-4C0E-97D5-1C53A8D09097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6883572B-3BAB-3243-9474-F83BFB1DC4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="1260" windowWidth="13560" windowHeight="11385" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="14440" yWindow="1260" windowWidth="13560" windowHeight="11380" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>default</t>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -262,9 +262,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -302,7 +302,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -408,7 +408,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -550,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -563,16 +563,16 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="E8:G8"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="7" customWidth="1"/>
-    <col min="2" max="3" width="25.5703125" customWidth="1"/>
+    <col min="2" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -595,7 +595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -618,7 +618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -641,7 +641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -687,7 +687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -710,7 +710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -733,7 +733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -753,369 +753,369 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
     </row>
   </sheetData>
